--- a/October/Reqisition of Tulip-2/09.10.19 Requisition of Tulip-2.xlsx
+++ b/October/Reqisition of Tulip-2/09.10.19 Requisition of Tulip-2.xlsx
@@ -1005,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:BV98"/>
@@ -1014,7 +1014,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="F92" sqref="F91:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1213,7 +1213,7 @@
       <c r="BU4" s="28"/>
       <c r="BV4" s="28"/>
     </row>
-    <row r="5" spans="1:74" ht="15">
+    <row r="5" spans="1:74" ht="15" hidden="1">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:74" ht="15">
+    <row r="6" spans="1:74" ht="15" hidden="1">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:74" ht="15">
+    <row r="7" spans="1:74" ht="15" hidden="1">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -1264,10 +1264,12 @@
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>19</v>
+      </c>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>0</v>
+        <v>14457.1</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>84</v>
@@ -1342,7 +1344,7 @@
       <c r="BU8" s="29"/>
       <c r="BV8" s="29"/>
     </row>
-    <row r="9" spans="1:74" ht="15">
+    <row r="9" spans="1:74" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
         <v>43</v>
       </c>
@@ -1427,7 +1429,7 @@
       <c r="BU9" s="29"/>
       <c r="BV9" s="29"/>
     </row>
-    <row r="10" spans="1:74" ht="15">
+    <row r="10" spans="1:74" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
         <v>86</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:74" ht="15">
+    <row r="11" spans="1:74" ht="15" hidden="1">
       <c r="A11" s="8" t="s">
         <v>99</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="12" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1546,7 @@
       <c r="BU12" s="29"/>
       <c r="BV12" s="29"/>
     </row>
-    <row r="13" spans="1:74" ht="15">
+    <row r="13" spans="1:74" ht="15" hidden="1">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +1560,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:74" ht="15">
+    <row r="14" spans="1:74" ht="15" hidden="1">
       <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:74" ht="15">
+    <row r="15" spans="1:74" ht="15" hidden="1">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:74" ht="15">
+    <row r="16" spans="1:74" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
         <v>97</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="17" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
         <v>95</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:74" ht="15">
+    <row r="18" spans="1:74" ht="15" hidden="1">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1638,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="19" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:74" ht="15">
+    <row r="20" spans="1:74" ht="15" hidden="1">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:74" ht="15">
+    <row r="21" spans="1:74" ht="15" hidden="1">
       <c r="A21" s="8" t="s">
         <v>92</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="BU21" s="29"/>
       <c r="BV21" s="29"/>
     </row>
-    <row r="22" spans="1:74" ht="15">
+    <row r="22" spans="1:74" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:74" ht="15">
+    <row r="23" spans="1:74" ht="15" hidden="1">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="24" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
@@ -1870,7 +1872,7 @@
       <c r="BU24" s="29"/>
       <c r="BV24" s="29"/>
     </row>
-    <row r="25" spans="1:74" ht="15">
+    <row r="25" spans="1:74" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:74" ht="15">
+    <row r="26" spans="1:74" ht="15" hidden="1">
       <c r="A26" s="8" t="s">
         <v>91</v>
       </c>
@@ -1971,7 +1973,7 @@
       <c r="BU26" s="29"/>
       <c r="BV26" s="29"/>
     </row>
-    <row r="27" spans="1:74" s="5" customFormat="1" ht="15">
+    <row r="27" spans="1:74" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:74" ht="15">
+    <row r="28" spans="1:74" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2003,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:74" ht="15">
+    <row r="29" spans="1:74" ht="15" hidden="1">
       <c r="A29" s="8" t="s">
         <v>73</v>
       </c>
@@ -2086,7 +2088,7 @@
       <c r="BU29" s="29"/>
       <c r="BV29" s="29"/>
     </row>
-    <row r="30" spans="1:74" ht="15">
+    <row r="30" spans="1:74" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
@@ -2109,10 +2111,12 @@
       <c r="B31" s="9">
         <v>5158.8649999999998</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8">
+        <v>8</v>
+      </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41270.92</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>83</v>
@@ -2125,16 +2129,18 @@
       <c r="B32" s="9">
         <v>5334.3029999999999</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10668.606</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:74" ht="15">
+    <row r="33" spans="1:74" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:74" ht="15">
+    <row r="34" spans="1:74" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
         <v>68</v>
       </c>
@@ -2233,7 +2239,7 @@
       <c r="BU34" s="29"/>
       <c r="BV34" s="29"/>
     </row>
-    <row r="35" spans="1:74" ht="15">
+    <row r="35" spans="1:74" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:74" ht="15">
+    <row r="36" spans="1:74" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
@@ -2263,7 +2269,7 @@
       </c>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:74" ht="15">
+    <row r="37" spans="1:74" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2283,7 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:74" ht="15">
+    <row r="38" spans="1:74" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:74" ht="15">
+    <row r="39" spans="1:74" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
         <v>100</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:74" ht="15">
+    <row r="40" spans="1:74" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
         <v>49</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:74" ht="15">
+    <row r="41" spans="1:74" ht="15" hidden="1">
       <c r="A41" s="8" t="s">
         <v>66</v>
       </c>
@@ -2339,7 +2345,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:74" ht="15">
+    <row r="42" spans="1:74" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
         <v>51</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:74" ht="15">
+    <row r="43" spans="1:74" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2375,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:74" ht="15">
+    <row r="44" spans="1:74" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:74" ht="15">
+    <row r="45" spans="1:74" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
         <v>32</v>
       </c>
@@ -2399,7 +2405,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:74" ht="15">
+    <row r="46" spans="1:74" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
@@ -2413,7 +2419,7 @@
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:74" ht="15">
+    <row r="47" spans="1:74" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2433,7 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:74" ht="15">
+    <row r="48" spans="1:74" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
         <v>31</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="8" t="s">
         <v>44</v>
       </c>
@@ -2457,7 +2463,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
         <v>53</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
         <v>78</v>
       </c>
@@ -2500,7 +2506,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
         <v>89</v>
       </c>
@@ -2523,16 +2529,18 @@
       <c r="B54" s="9">
         <v>1024.5550000000001</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="8">
+        <v>100</v>
+      </c>
       <c r="D54" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102455.5</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15">
+    <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2546,7 +2554,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
         <v>52</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15">
+    <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
         <v>76</v>
       </c>
@@ -2576,7 +2584,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="15">
+    <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
         <v>29</v>
       </c>
@@ -2590,7 +2598,7 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="15">
+    <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
         <v>69</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
+    <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2628,7 @@
       </c>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="15">
+    <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
         <v>13</v>
       </c>
@@ -2634,7 +2642,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
         <v>64</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
         <v>30</v>
       </c>
@@ -2664,7 +2672,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
         <v>47</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:74" ht="15">
+    <row r="65" spans="1:74" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
         <v>38</v>
       </c>
@@ -2694,7 +2702,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:74" ht="15">
+    <row r="66" spans="1:74" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
         <v>63</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:74" ht="15">
+    <row r="67" spans="1:74" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
         <v>80</v>
       </c>
@@ -2795,7 +2803,7 @@
       <c r="BU67" s="29"/>
       <c r="BV67" s="29"/>
     </row>
-    <row r="68" spans="1:74" ht="15">
+    <row r="68" spans="1:74" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
         <v>50</v>
       </c>
@@ -2809,7 +2817,7 @@
       </c>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:74" ht="15">
+    <row r="69" spans="1:74" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
         <v>55</v>
       </c>
@@ -2894,7 +2902,7 @@
       <c r="BU69" s="29"/>
       <c r="BV69" s="29"/>
     </row>
-    <row r="70" spans="1:74" ht="15">
+    <row r="70" spans="1:74" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
         <v>10</v>
       </c>
@@ -2908,7 +2916,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:74" ht="15">
+    <row r="71" spans="1:74" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
         <v>42</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:74" ht="15">
+    <row r="72" spans="1:74" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
         <v>77</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:74" ht="15">
+    <row r="73" spans="1:74" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
         <v>56</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:74" ht="15">
+    <row r="74" spans="1:74" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
         <v>39</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:74" ht="15">
+    <row r="75" spans="1:74" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
         <v>72</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:74" ht="15">
+    <row r="76" spans="1:74" ht="15" hidden="1">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3010,7 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:74" ht="15">
+    <row r="77" spans="1:74" ht="15" hidden="1">
       <c r="A77" s="8" t="s">
         <v>40</v>
       </c>
@@ -3016,7 +3024,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:74" ht="15">
+    <row r="78" spans="1:74" ht="15" hidden="1">
       <c r="A78" s="8" t="s">
         <v>61</v>
       </c>
@@ -3101,7 +3109,7 @@
       <c r="BU78" s="29"/>
       <c r="BV78" s="29"/>
     </row>
-    <row r="79" spans="1:74" ht="15">
+    <row r="79" spans="1:74" ht="15" hidden="1">
       <c r="A79" s="8" t="s">
         <v>108</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:74" ht="14.25" customHeight="1">
+    <row r="80" spans="1:74" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>88</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:55" ht="14.25" customHeight="1">
+    <row r="81" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>96</v>
       </c>
@@ -3199,7 +3207,7 @@
       <c r="BB81" s="36"/>
       <c r="BC81" s="36"/>
     </row>
-    <row r="82" spans="1:55" ht="14.25" customHeight="1">
+    <row r="82" spans="1:55" ht="14.25" hidden="1" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>106</v>
       </c>
@@ -3261,7 +3269,7 @@
       <c r="BB82" s="36"/>
       <c r="BC82" s="36"/>
     </row>
-    <row r="83" spans="1:55" ht="15">
+    <row r="83" spans="1:55" ht="15" hidden="1">
       <c r="A83" s="8" t="s">
         <v>71</v>
       </c>
@@ -3282,11 +3290,11 @@
       <c r="B84" s="50"/>
       <c r="C84" s="18">
         <f>SUM(C5:C83)</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D84" s="19">
         <f>SUM(D5:D83)</f>
-        <v>0</v>
+        <v>168852.12599999999</v>
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="37"/>
@@ -3522,7 +3530,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="23">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="26"/>
@@ -3575,7 +3583,7 @@
       </c>
       <c r="C96" s="24">
         <f>SUBTOTAL(9,C90:C95)</f>
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="26"/>
@@ -3593,7 +3601,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:E84">
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
